--- a/biology/Médecine/Diverticulose/Diverticulose.xlsx
+++ b/biology/Médecine/Diverticulose/Diverticulose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La diverticulose est la présence de petites hernies muqueuses sur la paroi du côlon.
-La diverticulose du côlon est un état asymptomatique qui correspond à une anomalie anatomique acquise du côlon caractérisée par la présence de diverticules. La maladie diverticulaire correspond à la diverticulite et ses complications et à l’hémorragie d’origine diverticulaire[1].
+La diverticulose du côlon est un état asymptomatique qui correspond à une anomalie anatomique acquise du côlon caractérisée par la présence de diverticules. La maladie diverticulaire correspond à la diverticulite et ses complications et à l’hémorragie d’origine diverticulaire.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La diverticulose est observée chez plus de 30 % des sujets de plus de 60 ans et 50 % des plus de 70 ans, plus souvent les femmes que les hommes[réf. nécessaire].
 Sa localisation est sigmoïdienne dans 80 % des cas.
-Le risque semble être sensiblement diminué avec un régime végétarien et avec un régime riche en fibres[2] ou en consommant régulièrement des fruits à coque (noix, noisettes, etc.) ou des pop-corns[3]. Une alimentation riche en fibres alimentaires ou le fait d'aller fréquemment à la selle ne semble toutefois pas prévenir les diverticuloses asymptomatiques[4].
+Le risque semble être sensiblement diminué avec un régime végétarien et avec un régime riche en fibres ou en consommant régulièrement des fruits à coque (noix, noisettes, etc.) ou des pop-corns. Une alimentation riche en fibres alimentaires ou le fait d'aller fréquemment à la selle ne semble toutefois pas prévenir les diverticuloses asymptomatiques.
 </t>
         </is>
       </c>
@@ -545,12 +559,14 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La paroi colique est formée de quatre couches différentes, qui se superposent : la muqueuse à l'intérieur, la sous-muqueuse, la musculeuse, et la séreuse. Ces couches sont traversées de dehors en dedans par les vaisseaux sanguins, ce qui détermine des points de faiblesse dans la musculeuse.
 Un régime alimentaire pauvre en fibres alimentaires entraîne la formation de selles dures, nécessitant de fortes contractions irrégulières du côlon. Cette pression, exercée sur les points faibles de la musculeuse, forme des diverticules : hernies de muqueuse à travers la musculeuse, et refoulant la séreuse, au niveau des points de pénétration des vaisseaux droits.
-L'affaiblissement naturel des muscles de l'intestin avec l'âge peut aussi favoriser la formation de diverticules. Un trouble de la motilité intestinale est retrouvé[5], avec, en particulier, un trouble de la relaxation longitudinale[6], pouvant être un facteur de la genèse de la diverticulose.
-Il existe également des modifications structurales de la paroi colique chez les patients porteurs d'une diverticulose avec plus de plexus myentérique mais moins de cellules ganglionnaires[7].
+L'affaiblissement naturel des muscles de l'intestin avec l'âge peut aussi favoriser la formation de diverticules. Un trouble de la motilité intestinale est retrouvé, avec, en particulier, un trouble de la relaxation longitudinale, pouvant être un facteur de la genèse de la diverticulose.
+Il existe également des modifications structurales de la paroi colique chez les patients porteurs d'une diverticulose avec plus de plexus myentérique mais moins de cellules ganglionnaires.
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La diverticulose est asymptomatique. L'examen clinique est le plus souvent normal.
 Il faut bien distinguer diverticulose, qui correspond à une anomalie acquise de la paroi colique et la maladie diverticulaire qui est, elle,  symptomatique.
@@ -615,14 +633,16 @@
           <t>Examens complémentaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On détecte la diverticulose lors d'un transit baryté, d'une tomodensitométrie ou d'une coloscopie, ou à l'occasion d'une complication.
 Les recommandations de la Haute Autorité de Santé (HAS) en 2017 préconise comme bilan sanguin, lors d'un épisode de diverticulite :
 - Numération globulaire à la recherche d'une hyperleucocytose à PNN
 - CRP (augmentée)
 - Ionogramme sanguin, à la recherche de troubles ioniques et d'une insuffisance rénale aigüe d'origine fonctionnelle associée.
-Il est nécessaire de compléter cet examen biologique par un scanner abdomino-pelvien avec injection de produit de contraste afin d'affirmer le diagnostic et d'évaluer la gravité de la poussée de diverticulite aigüe[1].
+Il est nécessaire de compléter cet examen biologique par un scanner abdomino-pelvien avec injection de produit de contraste afin d'affirmer le diagnostic et d'évaluer la gravité de la poussée de diverticulite aigüe.
 </t>
         </is>
       </c>
@@ -651,9 +671,11 @@
           <t>Évolution et complications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La principale complication de la diverticulose est la sigmoïdite (ou diverticulite), qui correspond à une infection des diverticules. Il s'agit d'un mode de découverte fréquent de la maladie. Chez ceux qui ont été traités médicalement, la récidive d'un épisode de diverticulite est rare, les facteurs prédictifs étant l'âge du patient inférieur à 50 ans et la survenue d'une première récidive[8]. Dans un tiers des cas, la récidive concerne un autre endroit du sigmoïde[9]. Les douleurs chroniques sont cependant fréquentes (un tiers des patients s'en plaint pendant plusieurs jours par mois[10]).
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La principale complication de la diverticulose est la sigmoïdite (ou diverticulite), qui correspond à une infection des diverticules. Il s'agit d'un mode de découverte fréquent de la maladie. Chez ceux qui ont été traités médicalement, la récidive d'un épisode de diverticulite est rare, les facteurs prédictifs étant l'âge du patient inférieur à 50 ans et la survenue d'une première récidive. Dans un tiers des cas, la récidive concerne un autre endroit du sigmoïde. Les douleurs chroniques sont cependant fréquentes (un tiers des patients s'en plaint pendant plusieurs jours par mois).
 Les complications de la diverticulose sont gradées selon la classification de Hinchey :
 Stade 0 : Présence de diverticules asymptomatiques
 Il n'y a pas d'indication opératoire à ce stade.
@@ -680,7 +702,7 @@
 Chaque option doit se discuter au cas par cas, selon les conditions per opératoires (état de choc, comorbidités,...) et les traitements habituels du patient (corticoïdes au long cours,...).
 Stade IV : Péritonite stercorale 
 Dans ce cas là péritonite est due à la rupture d'un diverticule, ou les matières fécales se répandent hors du colon.
-Le traitement consiste principalement en une résection et colostomie terminale (intervention de Hartmann). La résection-anastomose en un temps, avec ou sans stomie de protection est en cours d'évaluation[11],[12].
+Le traitement consiste principalement en une résection et colostomie terminale (intervention de Hartmann). La résection-anastomose en un temps, avec ou sans stomie de protection est en cours d'évaluation,.
 Les infections de diverticules à répétition peuvent aboutir à une sténose du colon sigmoïde pouvant se compliquer d'occlusion colique.
 Le diagnostic de cette sténose peut se faire soit par coloscopie, soit au scanner, et le traitement est une résection anastomose du segment sténosé.
 </t>
@@ -711,11 +733,13 @@
           <t>Prévention et prise en charge</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les études et méta-analyses indiquent qu'un régime riche en fibre à hauteur de 30 g par jour est associé à une réduction de 41 % du risque de diverticulite comparé à ceux consommant un régime pauvre en fibres[13].
-Les akènes, qui sont en fait des sortes de pépins que l'on trouve sur les fraises ou les framboises, ainsi que les pépins de tomates ou de concombre sont généralement considérés comme inoffensifs[14].
-L'administration de probiotiques après une première crise de diverticulite pourrait réduire les douleurs[15].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les études et méta-analyses indiquent qu'un régime riche en fibre à hauteur de 30 g par jour est associé à une réduction de 41 % du risque de diverticulite comparé à ceux consommant un régime pauvre en fibres.
+Les akènes, qui sont en fait des sortes de pépins que l'on trouve sur les fraises ou les framboises, ainsi que les pépins de tomates ou de concombre sont généralement considérés comme inoffensifs.
+L'administration de probiotiques après une première crise de diverticulite pourrait réduire les douleurs.
 </t>
         </is>
       </c>
